--- a/BCSUMM.xlsx
+++ b/BCSUMM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B346D491-E309-41B3-8A56-AC6F2E819552}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB57D14-F689-46B0-B2E1-49D44B4C0A30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -43,9 +43,6 @@
     <t>VFPart</t>
   </si>
   <si>
-    <t>VFWater</t>
-  </si>
-  <si>
     <t>VFAir</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Air</t>
   </si>
   <si>
-    <t>Schmutzdecke</t>
-  </si>
-  <si>
     <t>Rhizosphere</t>
   </si>
   <si>
@@ -80,13 +74,19 @@
   </si>
   <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>VFWat</t>
+  </si>
+  <si>
+    <t>Surface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,20 +920,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,24 +956,24 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -997,9 +997,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1026,9 +1026,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1048,10 +1048,16 @@
       <c r="J4">
         <v>0.1</v>
       </c>
+      <c r="K4">
+        <v>1500</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1072,9 +1078,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1092,9 +1098,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1112,9 +1118,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1138,9 +1144,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/BCSUMM.xlsx
+++ b/BCSUMM.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB57D14-F689-46B0-B2E1-49D44B4C0A30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064D5AB-2FA7-4CB6-ACD0-7C821418E808}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Compartment</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>Surface</t>
+  </si>
+  <si>
+    <t>VFLeafLitter</t>
+  </si>
+  <si>
+    <t>Vfaq</t>
+  </si>
+  <si>
+    <t>VFwq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VFFilm</t>
+  </si>
+  <si>
+    <t>VFSolids</t>
   </si>
 </sst>
 </file>
@@ -922,18 +940,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,8 +989,23 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1031,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1060,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1077,13 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -1054,8 +1094,24 @@
       <c r="L4">
         <v>0.2</v>
       </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>1-P4-O4-N4-M4</f>
+        <v>0.499</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1077,8 +1133,11 @@
       <c r="J5">
         <v>0.06</v>
       </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1177,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1203,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>

--- a/BCSUMM.xlsx
+++ b/BCSUMM.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB57D14-F689-46B0-B2E1-49D44B4C0A30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD5481D-97C6-40E6-AF48-E9C89525D1E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Compartment</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>AdvFlow</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Shoots</t>
   </si>
   <si>
-    <t>Pore_Water</t>
-  </si>
-  <si>
     <t>PartDensity</t>
   </si>
   <si>
@@ -80,6 +74,39 @@
   </si>
   <si>
     <t>Surface</t>
+  </si>
+  <si>
+    <t>Drainage</t>
+  </si>
+  <si>
+    <t>Filt_pores</t>
+  </si>
+  <si>
+    <t>Drain_pores</t>
+  </si>
+  <si>
+    <t>Qto2</t>
+  </si>
+  <si>
+    <t>Qto6</t>
+  </si>
+  <si>
+    <t>Qto10</t>
+  </si>
+  <si>
+    <t>Exfiltration</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Inflow</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>OutFlow</t>
   </si>
 </sst>
 </file>
@@ -563,9 +590,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -922,18 +950,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,221 +981,286 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="2">
+        <v>23.642550000000348</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.5000000000000002E-10</v>
+      </c>
+      <c r="J2">
+        <v>1500</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5000000000000002E-10</v>
-      </c>
-      <c r="K2">
-        <v>1500</v>
-      </c>
-      <c r="L2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="B3">
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
+      <c r="J3">
+        <v>2400</v>
+      </c>
       <c r="K3">
-        <v>2400</v>
-      </c>
-      <c r="L3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23.642550000000348</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>2605</v>
       </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
       <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
         <v>0.3</v>
       </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>1500</v>
       </c>
       <c r="K4">
-        <v>1500</v>
-      </c>
-      <c r="L4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23.642550000000348</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>2605</v>
       </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
       <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(1-F5)*0.4*B5</f>
+        <v>3.7828080000000566</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
         <v>2605</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>17</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
         <v>850</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>17</v>
       </c>
+      <c r="G8" s="1">
+        <v>0.8</v>
+      </c>
       <c r="H8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="1">
         <v>0.18</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>850</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>17</v>
       </c>
+      <c r="G9" s="1">
+        <v>0.8</v>
+      </c>
       <c r="H9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="1">
         <v>0.18</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>23.642550000000348</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>2605</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.7828080000000566</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
